--- a/calc.xlsx
+++ b/calc.xlsx
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P19"/>
+  <dimension ref="A2:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,7 +646,7 @@
         <v>2592000</v>
       </c>
       <c r="K6">
-        <f>K14/E4</f>
+        <f>K15/E4</f>
         <v>99.999999999523169</v>
       </c>
     </row>
@@ -796,305 +796,367 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
       <c r="B13" s="2">
-        <v>27955.479166666668</v>
+        <v>42852.313888888886</v>
       </c>
       <c r="C13" s="9">
         <f>(B13-25569)*86400</f>
-        <v>206191800.00000012</v>
+        <v>1493278319.9999998</v>
       </c>
       <c r="D13" s="9">
         <f>C13-$A$12</f>
-        <v>0</v>
+        <v>1287086519.9999995</v>
       </c>
       <c r="E13" s="9">
         <f>D13/0.864</f>
-        <v>0</v>
+        <v>1489683472.2222216</v>
       </c>
       <c r="F13" s="10">
         <f>TRUNC(E13/$E$7)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G13" s="8">
         <f>E13-F13*$E$7</f>
-        <v>0</v>
+        <v>89683472.222221613</v>
       </c>
       <c r="H13" s="10">
         <f>TRUNC(G13/$E$6)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I13">
         <f>G13-H13*$E$6</f>
-        <v>0</v>
+        <v>9683472.2222216129</v>
       </c>
       <c r="J13" s="10">
         <f>TRUNC(I13/$E$5)</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="K13">
         <f>I13-J13*$E$5</f>
-        <v>0</v>
+        <v>83472.22222161293</v>
       </c>
       <c r="L13" s="10">
         <f>TRUNC(K13/$E$4)</f>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="M13">
         <f>K13-L13*$E$4</f>
-        <v>0</v>
+        <v>472.2222216129303</v>
       </c>
       <c r="N13" s="10">
         <f>TRUNC(M13/$E$3)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="O13">
         <f>M13-N13*$E$3</f>
-        <v>0</v>
+        <v>2.2222216129302979</v>
       </c>
       <c r="P13" s="10">
         <f>ROUND(O13,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
-        <v>42900.479166666664</v>
+        <v>27955.479166666668</v>
       </c>
       <c r="C14" s="9">
         <f>(B14-25569)*86400</f>
-        <v>1497439799.9999998</v>
+        <v>206191800.00000012</v>
       </c>
       <c r="D14" s="9">
         <f>C14-$A$12</f>
-        <v>1291247999.9999995</v>
-      </c>
-      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
         <f>D14/0.864</f>
-        <v>1494499999.9999995</v>
+        <v>0</v>
       </c>
       <c r="F14" s="10">
         <f>TRUNC(E14/$E$7)</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G14" s="8">
         <f>E14-F14*$E$7</f>
-        <v>94499999.999999523</v>
+        <v>0</v>
       </c>
       <c r="H14" s="10">
         <f>TRUNC(G14/$E$6)</f>
-        <v>9</v>
-      </c>
-      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <f>G14-H14*$E$6</f>
-        <v>4499999.9999995232</v>
+        <v>0</v>
       </c>
       <c r="J14" s="10">
         <f>TRUNC(I14/$E$5)</f>
-        <v>44</v>
-      </c>
-      <c r="K14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <f>I14-J14*$E$5</f>
-        <v>99999.999999523163</v>
-      </c>
-      <c r="L14" s="17">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
         <f>TRUNC(K14/$E$4)</f>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <f>K14-L14*$E$4</f>
-        <v>999.99999952316284</v>
+        <v>0</v>
       </c>
       <c r="N14" s="10">
         <f>TRUNC(M14/$E$3)</f>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <f>M14-N14*$E$3</f>
-        <v>9.9999995231628418</v>
+        <v>0</v>
       </c>
       <c r="P14" s="10">
         <f>ROUND(O14,0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
-        <v>27708.479166666668</v>
+        <v>42900.479166666664</v>
       </c>
       <c r="C15" s="9">
         <f>(B15-25569)*86400</f>
-        <v>184851000.00000012</v>
+        <v>1497439799.9999998</v>
       </c>
       <c r="D15" s="9">
         <f>C15-$A$12</f>
-        <v>-21340800</v>
-      </c>
-      <c r="E15" s="9">
+        <v>1291247999.9999995</v>
+      </c>
+      <c r="E15" s="15">
         <f>D15/0.864</f>
-        <v>-24700000</v>
+        <v>1494499999.9999995</v>
       </c>
       <c r="F15" s="10">
         <f>TRUNC(E15/$E$7)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G15" s="8">
         <f>E15-F15*$E$7</f>
-        <v>-24700000</v>
+        <v>94499999.999999523</v>
       </c>
       <c r="H15" s="10">
         <f>TRUNC(G15/$E$6)</f>
-        <v>-2</v>
-      </c>
-      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="I15" s="16">
         <f>G15-H15*$E$6</f>
-        <v>-4700000</v>
+        <v>4499999.9999995232</v>
       </c>
       <c r="J15" s="10">
         <f>TRUNC(I15/$E$5)</f>
-        <v>-47</v>
-      </c>
-      <c r="K15">
+        <v>44</v>
+      </c>
+      <c r="K15" s="14">
         <f>I15-J15*$E$5</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="10">
+        <v>99999.999999523163</v>
+      </c>
+      <c r="L15" s="17">
         <f>TRUNC(K15/$E$4)</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M15">
         <f>K15-L15*$E$4</f>
-        <v>0</v>
+        <v>999.99999952316284</v>
       </c>
       <c r="N15" s="10">
         <f>TRUNC(M15/$E$3)</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="O15">
         <f>M15-N15*$E$3</f>
-        <v>0</v>
+        <v>9.9999995231628418</v>
       </c>
       <c r="P15" s="10">
         <f>ROUND(O15,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>27708.479166666668</v>
+      </c>
+      <c r="C16" s="9">
+        <f>(B16-25569)*86400</f>
+        <v>184851000.00000012</v>
+      </c>
+      <c r="D16" s="9">
+        <f>C16-$A$12</f>
+        <v>-21340800</v>
+      </c>
       <c r="E16" s="9">
-        <f>E14-E15</f>
-        <v>1519199999.9999995</v>
+        <f>D16/0.864</f>
+        <v>-24700000</v>
       </c>
       <c r="F16" s="10">
         <f>TRUNC(E16/$E$7)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8">
         <f>E16-F16*$E$7</f>
-        <v>19199999.999999523</v>
+        <v>-24700000</v>
       </c>
       <c r="H16" s="10">
         <f>TRUNC(G16/$E$6)</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I16">
         <f>G16-H16*$E$6</f>
-        <v>9199999.9999995232</v>
+        <v>-4700000</v>
       </c>
       <c r="J16" s="10">
         <f>TRUNC(I16/$E$5)</f>
-        <v>91</v>
+        <v>-47</v>
       </c>
       <c r="K16">
         <f>I16-J16*$E$5</f>
-        <v>99999.999999523163</v>
+        <v>0</v>
       </c>
       <c r="L16" s="10">
         <f>TRUNC(K16/$E$4)</f>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <f>K16-L16*$E$4</f>
-        <v>999.99999952316284</v>
+        <v>0</v>
       </c>
       <c r="N16" s="10">
         <f>TRUNC(M16/$E$3)</f>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <f>M16-N16*$E$3</f>
-        <v>9.9999995231628418</v>
+        <v>0</v>
       </c>
       <c r="P16" s="10">
         <f>ROUND(O16,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E17" s="9">
+        <f>E15-E16</f>
+        <v>1519199999.9999995</v>
+      </c>
+      <c r="F17" s="10">
+        <f>TRUNC(E17/$E$7)</f>
+        <v>15</v>
+      </c>
+      <c r="G17" s="8">
+        <f>E17-F17*$E$7</f>
+        <v>19199999.999999523</v>
+      </c>
+      <c r="H17" s="10">
+        <f>TRUNC(G17/$E$6)</f>
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f>G17-H17*$E$6</f>
+        <v>9199999.9999995232</v>
+      </c>
+      <c r="J17" s="10">
+        <f>TRUNC(I17/$E$5)</f>
+        <v>91</v>
+      </c>
+      <c r="K17">
+        <f>I17-J17*$E$5</f>
+        <v>99999.999999523163</v>
+      </c>
+      <c r="L17" s="10">
+        <f>TRUNC(K17/$E$4)</f>
+        <v>99</v>
+      </c>
+      <c r="M17">
+        <f>K17-L17*$E$4</f>
+        <v>999.99999952316284</v>
+      </c>
+      <c r="N17" s="10">
+        <f>TRUNC(M17/$E$3)</f>
+        <v>99</v>
+      </c>
+      <c r="O17">
+        <f>M17-N17*$E$3</f>
+        <v>9.9999995231628418</v>
+      </c>
+      <c r="P17" s="10">
+        <f>ROUND(O17,0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C17" s="13" t="s">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C18" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M19" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20">
         <v>15</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>7</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>53</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>5</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>55</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>6</v>
       </c>
-      <c r="I19" s="9">
-        <f>G19+F19*E3+E19*E4+D19*E5+C19*E6+B19*E7</f>
+      <c r="I20" s="9">
+        <f>G20+F20*E3+E20*E4+D20*E5+C20*E6+B20*E7</f>
         <v>1575305556</v>
       </c>
-      <c r="K19" s="9">
-        <f>I19*0.864</f>
+      <c r="K20" s="9">
+        <f>I20*0.864</f>
         <v>1361064000.3840001</v>
       </c>
-      <c r="M19" s="9">
-        <f>K19+A12</f>
+      <c r="M20" s="9">
+        <f>K20+A12</f>
         <v>1567255800.3840003</v>
       </c>
-      <c r="O19" s="2">
-        <f>M19/86400+25569</f>
+      <c r="O20" s="2">
+        <f>M20/86400+25569</f>
         <v>43708.534726666665</v>
       </c>
     </row>

--- a/calc.xlsx
+++ b/calc.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>minute</t>
   </si>
@@ -108,6 +108,48 @@
   </si>
   <si>
     <t>Unix sec real</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>to alt time</t>
+  </si>
+  <si>
+    <t>to real time</t>
   </si>
 </sst>
 </file>
@@ -519,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P20"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,6 +585,14 @@
     <col min="15" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>11</v>
@@ -550,6 +600,20 @@
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="K2">
+        <f>G2/I2</f>
+        <v>1.1574074074074074</v>
+      </c>
+      <c r="M2">
+        <f>I2/G2</f>
+        <v>0.86399999999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -574,6 +638,18 @@
       <c r="G3">
         <v>60</v>
       </c>
+      <c r="I3">
+        <f>E3*$I$2</f>
+        <v>8.64</v>
+      </c>
+      <c r="K3">
+        <f>G3/I3</f>
+        <v>6.9444444444444438</v>
+      </c>
+      <c r="M3">
+        <f>I3/G3</f>
+        <v>0.14400000000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -600,6 +676,18 @@
         <f>F4*G3</f>
         <v>3600</v>
       </c>
+      <c r="I4">
+        <f>E4*$I$2</f>
+        <v>864</v>
+      </c>
+      <c r="K4">
+        <f>G4/I4</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="M4">
+        <f>I4/G4</f>
+        <v>0.24</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
@@ -619,6 +707,18 @@
         <f>F5*G4</f>
         <v>86400</v>
       </c>
+      <c r="I5">
+        <f>E5*$I$2</f>
+        <v>86400</v>
+      </c>
+      <c r="K5">
+        <f>G5/I5</f>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f>I5/G5</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -639,15 +739,23 @@
         <v>10000000</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>30.416699999999999</v>
       </c>
       <c r="G6" s="3">
         <f>F6*G5</f>
-        <v>2592000</v>
+        <v>2628002.88</v>
+      </c>
+      <c r="I6">
+        <f>E6*$I$2</f>
+        <v>8640000</v>
       </c>
       <c r="K6">
-        <f>K15/E4</f>
-        <v>99.999999999523169</v>
+        <f>G6/I6</f>
+        <v>0.30416699999999997</v>
+      </c>
+      <c r="M6">
+        <f>I6/G6</f>
+        <v>3.2876676299532823</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -666,7 +774,19 @@
       </c>
       <c r="G7" s="3">
         <f>F7*G6</f>
-        <v>31104000</v>
+        <v>31536034.559999999</v>
+      </c>
+      <c r="I7">
+        <f>E7*$I$2</f>
+        <v>86400000</v>
+      </c>
+      <c r="K7">
+        <f>G7/I7</f>
+        <v>0.3650004</v>
+      </c>
+      <c r="M7">
+        <f>I7/G7</f>
+        <v>2.7397230249610685</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -682,7 +802,7 @@
     </row>
     <row r="11" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
-        <v>27955.479166666668</v>
+        <v>27955.5625</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>7</v>
@@ -733,14 +853,14 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <f>(A11-25569)*86400</f>
-        <v>206191800.00000012</v>
+        <v>206199000</v>
       </c>
       <c r="B12" s="2">
-        <v>28955.479166666668</v>
+        <v>28955.5625</v>
       </c>
       <c r="C12" s="9">
         <f>(B12-25569)*86400</f>
-        <v>292591800.00000012</v>
+        <v>292599000</v>
       </c>
       <c r="D12" s="9">
         <f>C12-$A$12</f>
@@ -751,119 +871,119 @@
         <v>100000000</v>
       </c>
       <c r="F12" s="10">
-        <f>TRUNC(E12/$E$7)</f>
+        <f t="shared" ref="F12:F17" si="0">TRUNC(E12/$E$7)</f>
         <v>1</v>
       </c>
       <c r="G12" s="8">
-        <f>E12-F12*$E$7</f>
+        <f t="shared" ref="G12:G17" si="1">E12-F12*$E$7</f>
         <v>0</v>
       </c>
       <c r="H12" s="10">
-        <f>TRUNC(G12/$E$6)</f>
+        <f t="shared" ref="H12:H17" si="2">TRUNC(G12/$E$6)</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>G12-H12*$E$6</f>
+        <f t="shared" ref="I12:I17" si="3">G12-H12*$E$6</f>
         <v>0</v>
       </c>
       <c r="J12" s="10">
-        <f>TRUNC(I12/$E$5)</f>
+        <f t="shared" ref="J12:J17" si="4">TRUNC(I12/$E$5)</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>I12-J12*$E$5</f>
+        <f t="shared" ref="K12:K17" si="5">I12-J12*$E$5</f>
         <v>0</v>
       </c>
       <c r="L12" s="10">
-        <f>TRUNC(K12/$E$4)</f>
+        <f t="shared" ref="L12:L17" si="6">TRUNC(K12/$E$4)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>K12-L12*$E$4</f>
+        <f t="shared" ref="M12:M17" si="7">K12-L12*$E$4</f>
         <v>0</v>
       </c>
       <c r="N12" s="10">
-        <f>TRUNC(M12/$E$3)</f>
+        <f t="shared" ref="N12:N17" si="8">TRUNC(M12/$E$3)</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>M12-N12*$E$3</f>
+        <f t="shared" ref="O12:O17" si="9">M12-N12*$E$3</f>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f>ROUND(O12,0)</f>
+        <f t="shared" ref="P12:P17" si="10">ROUND(O12,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="2">
-        <v>42852.313888888886</v>
+        <v>42857.509722222225</v>
       </c>
       <c r="C13" s="9">
         <f>(B13-25569)*86400</f>
-        <v>1493278319.9999998</v>
+        <v>1493727240.0000002</v>
       </c>
       <c r="D13" s="9">
         <f>C13-$A$12</f>
-        <v>1287086519.9999995</v>
+        <v>1287528240.0000002</v>
       </c>
       <c r="E13" s="9">
         <f>D13/0.864</f>
-        <v>1489683472.2222216</v>
+        <v>1490194722.2222226</v>
       </c>
       <c r="F13" s="10">
-        <f>TRUNC(E13/$E$7)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G13" s="8">
-        <f>E13-F13*$E$7</f>
-        <v>89683472.222221613</v>
+        <f t="shared" si="1"/>
+        <v>90194722.222222567</v>
       </c>
       <c r="H13" s="10">
-        <f>TRUNC(G13/$E$6)</f>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="I13">
-        <f>G13-H13*$E$6</f>
-        <v>9683472.2222216129</v>
+        <f t="shared" si="3"/>
+        <v>194722.2222225666</v>
       </c>
       <c r="J13" s="10">
-        <f>TRUNC(I13/$E$5)</f>
-        <v>96</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="K13">
-        <f>I13-J13*$E$5</f>
-        <v>83472.22222161293</v>
+        <f t="shared" si="5"/>
+        <v>94722.222222566605</v>
       </c>
       <c r="L13" s="10">
-        <f>TRUNC(K13/$E$4)</f>
-        <v>83</v>
+        <f t="shared" si="6"/>
+        <v>94</v>
       </c>
       <c r="M13">
-        <f>K13-L13*$E$4</f>
-        <v>472.2222216129303</v>
+        <f t="shared" si="7"/>
+        <v>722.22222256660461</v>
       </c>
       <c r="N13" s="10">
-        <f>TRUNC(M13/$E$3)</f>
-        <v>47</v>
+        <f t="shared" si="8"/>
+        <v>72</v>
       </c>
       <c r="O13">
-        <f>M13-N13*$E$3</f>
-        <v>2.2222216129302979</v>
+        <f t="shared" si="9"/>
+        <v>2.2222225666046143</v>
       </c>
       <c r="P13" s="10">
-        <f>ROUND(O13,0)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
-        <v>27955.479166666668</v>
+        <v>27955.5625</v>
       </c>
       <c r="C14" s="9">
         <f>(B14-25569)*86400</f>
-        <v>206191800.00000012</v>
+        <v>206199000</v>
       </c>
       <c r="D14" s="9">
         <f>C14-$A$12</f>
@@ -874,118 +994,118 @@
         <v>0</v>
       </c>
       <c r="F14" s="10">
-        <f>TRUNC(E14/$E$7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="8">
-        <f>E14-F14*$E$7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14" s="10">
-        <f>TRUNC(G14/$E$6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f>G14-H14*$E$6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J14" s="10">
-        <f>TRUNC(I14/$E$5)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f>I14-J14*$E$5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L14" s="10">
-        <f>TRUNC(K14/$E$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f>K14-L14*$E$4</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N14" s="10">
-        <f>TRUNC(M14/$E$3)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f>M14-N14*$E$3</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P14" s="10">
-        <f>ROUND(O14,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
-        <v>42900.479166666664</v>
+        <v>42900.5625</v>
       </c>
       <c r="C15" s="9">
         <f>(B15-25569)*86400</f>
-        <v>1497439799.9999998</v>
+        <v>1497447000</v>
       </c>
       <c r="D15" s="9">
         <f>C15-$A$12</f>
-        <v>1291247999.9999995</v>
+        <v>1291248000</v>
       </c>
       <c r="E15" s="15">
         <f>D15/0.864</f>
-        <v>1494499999.9999995</v>
+        <v>1494500000</v>
       </c>
       <c r="F15" s="10">
-        <f>TRUNC(E15/$E$7)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G15" s="8">
-        <f>E15-F15*$E$7</f>
-        <v>94499999.999999523</v>
+        <f t="shared" si="1"/>
+        <v>94500000</v>
       </c>
       <c r="H15" s="10">
-        <f>TRUNC(G15/$E$6)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I15" s="16">
-        <f>G15-H15*$E$6</f>
-        <v>4499999.9999995232</v>
+        <f t="shared" si="3"/>
+        <v>4500000</v>
       </c>
       <c r="J15" s="10">
-        <f>TRUNC(I15/$E$5)</f>
-        <v>44</v>
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
       <c r="K15" s="14">
-        <f>I15-J15*$E$5</f>
-        <v>99999.999999523163</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="L15" s="17">
-        <f>TRUNC(K15/$E$4)</f>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="M15">
-        <f>K15-L15*$E$4</f>
-        <v>999.99999952316284</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="N15" s="10">
-        <f>TRUNC(M15/$E$3)</f>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="O15">
-        <f>M15-N15*$E$3</f>
-        <v>9.9999995231628418</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="P15" s="10">
-        <f>ROUND(O15,0)</f>
-        <v>10</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
-        <v>27708.479166666668</v>
+        <v>27708.5625</v>
       </c>
       <c r="C16" s="9">
         <f>(B16-25569)*86400</f>
-        <v>184851000.00000012</v>
+        <v>184858200</v>
       </c>
       <c r="D16" s="9">
         <f>C16-$A$12</f>
@@ -996,106 +1116,106 @@
         <v>-24700000</v>
       </c>
       <c r="F16" s="10">
-        <f>TRUNC(E16/$E$7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16" s="8">
-        <f>E16-F16*$E$7</f>
+        <f t="shared" si="1"/>
         <v>-24700000</v>
       </c>
       <c r="H16" s="10">
-        <f>TRUNC(G16/$E$6)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="I16">
-        <f>G16-H16*$E$6</f>
+        <f t="shared" si="3"/>
         <v>-4700000</v>
       </c>
       <c r="J16" s="10">
-        <f>TRUNC(I16/$E$5)</f>
+        <f t="shared" si="4"/>
         <v>-47</v>
       </c>
       <c r="K16">
-        <f>I16-J16*$E$5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L16" s="10">
-        <f>TRUNC(K16/$E$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M16">
-        <f>K16-L16*$E$4</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N16" s="10">
-        <f>TRUNC(M16/$E$3)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O16">
-        <f>M16-N16*$E$3</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P16" s="10">
-        <f>ROUND(O16,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E17" s="9">
         <f>E15-E16</f>
-        <v>1519199999.9999995</v>
+        <v>1519200000</v>
       </c>
       <c r="F17" s="10">
-        <f>TRUNC(E17/$E$7)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G17" s="8">
-        <f>E17-F17*$E$7</f>
-        <v>19199999.999999523</v>
+        <f t="shared" si="1"/>
+        <v>19200000</v>
       </c>
       <c r="H17" s="10">
-        <f>TRUNC(G17/$E$6)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I17">
-        <f>G17-H17*$E$6</f>
-        <v>9199999.9999995232</v>
+        <f t="shared" si="3"/>
+        <v>9200000</v>
       </c>
       <c r="J17" s="10">
-        <f>TRUNC(I17/$E$5)</f>
-        <v>91</v>
+        <f t="shared" si="4"/>
+        <v>92</v>
       </c>
       <c r="K17">
-        <f>I17-J17*$E$5</f>
-        <v>99999.999999523163</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="L17" s="10">
-        <f>TRUNC(K17/$E$4)</f>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="M17">
-        <f>K17-L17*$E$4</f>
-        <v>999.99999952316284</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="N17" s="10">
-        <f>TRUNC(M17/$E$3)</f>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="O17">
-        <f>M17-N17*$E$3</f>
-        <v>9.9999995231628418</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="P17" s="10">
-        <f>ROUND(O17,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C18" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
@@ -1124,7 +1244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>15</v>
       </c>
@@ -1153,11 +1273,107 @@
       </c>
       <c r="M20" s="9">
         <f>K20+A12</f>
-        <v>1567255800.3840003</v>
+        <v>1567263000.3840001</v>
       </c>
       <c r="O20" s="2">
         <f>M20/86400+25569</f>
-        <v>43708.534726666665</v>
+        <v>43708.618060000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/calc.xlsx
+++ b/calc.xlsx
@@ -607,11 +607,11 @@
         <v>0.86399999999999999</v>
       </c>
       <c r="K2">
-        <f>G2/I2</f>
+        <f t="shared" ref="K2:K7" si="0">G2/I2</f>
         <v>1.1574074074074074</v>
       </c>
       <c r="M2">
-        <f>I2/G2</f>
+        <f t="shared" ref="M2:M7" si="1">I2/G2</f>
         <v>0.86399999999999999</v>
       </c>
     </row>
@@ -643,11 +643,11 @@
         <v>8.64</v>
       </c>
       <c r="K3">
-        <f>G3/I3</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444438</v>
       </c>
       <c r="M3">
-        <f>I3/G3</f>
+        <f t="shared" si="1"/>
         <v>0.14400000000000002</v>
       </c>
     </row>
@@ -681,11 +681,11 @@
         <v>864</v>
       </c>
       <c r="K4">
-        <f>G4/I4</f>
+        <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
       <c r="M4">
-        <f>I4/G4</f>
+        <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
     </row>
@@ -712,11 +712,11 @@
         <v>86400</v>
       </c>
       <c r="K5">
-        <f>G5/I5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M5">
-        <f>I5/G5</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -750,11 +750,11 @@
         <v>8640000</v>
       </c>
       <c r="K6">
-        <f>G6/I6</f>
+        <f t="shared" si="0"/>
         <v>0.30416699999999997</v>
       </c>
       <c r="M6">
-        <f>I6/G6</f>
+        <f t="shared" si="1"/>
         <v>3.2876676299532823</v>
       </c>
     </row>
@@ -781,11 +781,11 @@
         <v>86400000</v>
       </c>
       <c r="K7">
-        <f>G7/I7</f>
+        <f t="shared" si="0"/>
         <v>0.3650004</v>
       </c>
       <c r="M7">
-        <f>I7/G7</f>
+        <f t="shared" si="1"/>
         <v>2.7397230249610685</v>
       </c>
     </row>
@@ -871,110 +871,110 @@
         <v>100000000</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" ref="F12:F17" si="0">TRUNC(E12/$E$7)</f>
+        <f t="shared" ref="F12:F17" si="2">TRUNC(E12/$E$7)</f>
         <v>1</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" ref="G12:G17" si="1">E12-F12*$E$7</f>
+        <f t="shared" ref="G12:G17" si="3">E12-F12*$E$7</f>
         <v>0</v>
       </c>
       <c r="H12" s="10">
-        <f t="shared" ref="H12:H17" si="2">TRUNC(G12/$E$6)</f>
+        <f t="shared" ref="H12:H17" si="4">TRUNC(G12/$E$6)</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:I17" si="3">G12-H12*$E$6</f>
+        <f t="shared" ref="I12:I17" si="5">G12-H12*$E$6</f>
         <v>0</v>
       </c>
       <c r="J12" s="10">
-        <f t="shared" ref="J12:J17" si="4">TRUNC(I12/$E$5)</f>
+        <f t="shared" ref="J12:J17" si="6">TRUNC(I12/$E$5)</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12:K17" si="5">I12-J12*$E$5</f>
+        <f t="shared" ref="K12:K17" si="7">I12-J12*$E$5</f>
         <v>0</v>
       </c>
       <c r="L12" s="10">
-        <f t="shared" ref="L12:L17" si="6">TRUNC(K12/$E$4)</f>
+        <f t="shared" ref="L12:L17" si="8">TRUNC(K12/$E$4)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12:M17" si="7">K12-L12*$E$4</f>
+        <f t="shared" ref="M12:M17" si="9">K12-L12*$E$4</f>
         <v>0</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" ref="N12:N17" si="8">TRUNC(M12/$E$3)</f>
+        <f t="shared" ref="N12:N17" si="10">TRUNC(M12/$E$3)</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" ref="O12:O17" si="9">M12-N12*$E$3</f>
+        <f t="shared" ref="O12:O17" si="11">M12-N12*$E$3</f>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P17" si="10">ROUND(O12,0)</f>
+        <f t="shared" ref="P12:P17" si="12">ROUND(O12,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="2">
-        <v>42857.509722222225</v>
+        <v>42857.631944444445</v>
       </c>
       <c r="C13" s="9">
         <f>(B13-25569)*86400</f>
-        <v>1493727240.0000002</v>
+        <v>1493737800</v>
       </c>
       <c r="D13" s="9">
         <f>C13-$A$12</f>
-        <v>1287528240.0000002</v>
+        <v>1287538800</v>
       </c>
       <c r="E13" s="9">
         <f>D13/0.864</f>
-        <v>1490194722.2222226</v>
+        <v>1490206944.4444444</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" si="1"/>
-        <v>90194722.222222567</v>
+        <f t="shared" si="3"/>
+        <v>90206944.444444418</v>
       </c>
       <c r="H13" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
-        <v>194722.2222225666</v>
+        <f t="shared" si="5"/>
+        <v>206944.44444441795</v>
       </c>
       <c r="J13" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="K13">
-        <f t="shared" si="5"/>
-        <v>94722.222222566605</v>
+        <f t="shared" si="7"/>
+        <v>6944.4444444179535</v>
       </c>
       <c r="L13" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="9"/>
+        <v>944.44444441795349</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="10"/>
         <v>94</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="7"/>
-        <v>722.22222256660461</v>
-      </c>
-      <c r="N13" s="10">
-        <f t="shared" si="8"/>
-        <v>72</v>
-      </c>
       <c r="O13">
-        <f t="shared" si="9"/>
-        <v>2.2222225666046143</v>
+        <f t="shared" si="11"/>
+        <v>4.4444444179534912</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -994,47 +994,47 @@
         <v>0</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H14" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L14" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1055,47 +1055,47 @@
         <v>1494500000</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>94500000</v>
       </c>
       <c r="H15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="I15" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4500000</v>
       </c>
       <c r="J15" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="K15" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L15" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1116,47 +1116,47 @@
         <v>-24700000</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-24700000</v>
       </c>
       <c r="H16" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4700000</v>
       </c>
       <c r="J16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-47</v>
       </c>
       <c r="K16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L16" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1166,47 +1166,47 @@
         <v>1519200000</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19200000</v>
       </c>
       <c r="H17" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9200000</v>
       </c>
       <c r="J17" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="K17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L17" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>

--- a/calc.xlsx
+++ b/calc.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danilin\Documents\Dela\G\Pitonizm\dattime\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14352" windowHeight="4680"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -224,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -256,6 +251,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -317,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,7 +350,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -561,31 +559,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="10" width="6.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="K1" t="s">
         <v>41</v>
       </c>
@@ -593,7 +591,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>11</v>
       </c>
@@ -615,7 +613,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>18753</v>
       </c>
@@ -651,7 +649,7 @@
         <v>0.14400000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>27955.5625</v>
       </c>
@@ -689,7 +687,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
@@ -720,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>42900.5625</v>
       </c>
@@ -758,7 +756,7 @@
         <v>3.2876676299532823</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
@@ -789,7 +787,7 @@
         <v>2.7397230249610685</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -850,7 +848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <f>(A11-25569)*86400</f>
         <v>206199000</v>
@@ -915,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="2">
         <v>42857.631944444445</v>
@@ -977,7 +975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>27955.5625</v>
       </c>
@@ -1038,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>42900.5625</v>
       </c>
@@ -1099,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>27708.5625</v>
       </c>
@@ -1160,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E17" s="9">
         <f>E15-E16</f>
         <v>1519200000</v>
@@ -1210,169 +1208,363 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C18" s="13" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E18" s="18">
+        <v>2147483647</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" ref="F18" si="13">TRUNC(E18/$E$7)</f>
+        <v>21</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18" si="14">E18-F18*$E$7</f>
+        <v>47483647</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" ref="H18" si="15">TRUNC(G18/$E$6)</f>
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18" si="16">G18-H18*$E$6</f>
+        <v>7483647</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" ref="J18" si="17">TRUNC(I18/$E$5)</f>
+        <v>74</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18" si="18">I18-J18*$E$5</f>
+        <v>83647</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" ref="L18" si="19">TRUNC(K18/$E$4)</f>
+        <v>83</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18" si="20">K18-L18*$E$4</f>
+        <v>647</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" ref="N18" si="21">TRUNC(M18/$E$3)</f>
+        <v>64</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18" si="22">M18-N18*$E$3</f>
+        <v>7</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" ref="P18" si="23">ROUND(O18,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E19" s="18">
+        <f>E18+E7</f>
+        <v>2247483647</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" ref="F19" si="24">TRUNC(E19/$E$7)</f>
+        <v>22</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" ref="G19" si="25">E19-F19*$E$7</f>
+        <v>47483647</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" ref="H19" si="26">TRUNC(G19/$E$6)</f>
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19" si="27">G19-H19*$E$6</f>
+        <v>7483647</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" ref="J19" si="28">TRUNC(I19/$E$5)</f>
+        <v>74</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19" si="29">I19-J19*$E$5</f>
+        <v>83647</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" ref="L19" si="30">TRUNC(K19/$E$4)</f>
+        <v>83</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19" si="31">K19-L19*$E$4</f>
+        <v>647</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" ref="N19" si="32">TRUNC(M19/$E$3)</f>
+        <v>64</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19" si="33">M19-N19*$E$3</f>
+        <v>7</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" ref="P19" si="34">ROUND(O19,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E20" s="18">
+        <f>-E18-1</f>
+        <v>-2147483648</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" ref="F20" si="35">TRUNC(E20/$E$7)</f>
+        <v>-21</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" ref="G20" si="36">E20-F20*$E$7</f>
+        <v>-47483648</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" ref="H20" si="37">TRUNC(G20/$E$6)</f>
+        <v>-4</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20" si="38">G20-H20*$E$6</f>
+        <v>-7483648</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" ref="J20" si="39">TRUNC(I20/$E$5)</f>
+        <v>-74</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20" si="40">I20-J20*$E$5</f>
+        <v>-83648</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" ref="L20" si="41">TRUNC(K20/$E$4)</f>
+        <v>-83</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20" si="42">K20-L20*$E$4</f>
+        <v>-648</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" ref="N20" si="43">TRUNC(M20/$E$3)</f>
+        <v>-64</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20" si="44">M20-N20*$E$3</f>
+        <v>-8</v>
+      </c>
+      <c r="P20" s="10">
+        <f t="shared" ref="P20" si="45">ROUND(O20,0)</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E21" s="18"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E22" s="18"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M25" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>53</v>
-      </c>
-      <c r="E20">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
         <v>5</v>
       </c>
-      <c r="F20">
-        <v>55</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-      <c r="I20" s="9">
-        <f>G20+F20*E3+E20*E4+D20*E5+C20*E6+B20*E7</f>
-        <v>1575305556</v>
-      </c>
-      <c r="K20" s="9">
-        <f>I20*0.864</f>
-        <v>1361064000.3840001</v>
-      </c>
-      <c r="M20" s="9">
-        <f>K20+A12</f>
-        <v>1567263000.3840001</v>
-      </c>
-      <c r="O20" s="2">
-        <f>M20/86400+25569</f>
-        <v>43708.618060000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="F26">
+        <v>85</v>
+      </c>
+      <c r="G26">
+        <v>28</v>
+      </c>
+      <c r="I26" s="9">
+        <f>G26+F26*E3+E26*E4+D26*E5+C26*E6+B26*E7</f>
+        <v>1490805878</v>
+      </c>
+      <c r="K26" s="9">
+        <f>I26*0.864</f>
+        <v>1288056278.592</v>
+      </c>
+      <c r="M26" s="9">
+        <f>K26+A12</f>
+        <v>1494255278.592</v>
+      </c>
+      <c r="O26" s="2">
+        <f>M26/86400+25569</f>
+        <v>42863.621279999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>29</v>
-      </c>
-      <c r="B25">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>35</v>
       </c>
       <c r="B31">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E31" s="3">
+        <v>2147483647</v>
+      </c>
+      <c r="G31">
+        <f>E31/E7</f>
+        <v>21.47483647</v>
+      </c>
+      <c r="I31">
+        <f>G31*M7</f>
+        <v>58.835103934132675</v>
+      </c>
+      <c r="K31">
+        <f>1976+I31</f>
+        <v>2034.8351039341326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B32">
+      <c r="B38">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B33">
+      <c r="B39">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B34">
+      <c r="B40">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B35">
+      <c r="B41">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B36">
+      <c r="B42">
         <v>31</v>
       </c>
     </row>
@@ -1390,12 +1582,12 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1411,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1427,7 +1619,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1443,7 +1635,7 @@
         <v>1.728</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1459,7 +1651,7 @@
         <v>2.5920000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1475,7 +1667,7 @@
         <v>3.456</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1491,7 +1683,7 @@
         <v>4.32</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1507,7 +1699,7 @@
         <v>5.1840000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1523,7 +1715,7 @@
         <v>6.048</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>9</v>
       </c>
@@ -1539,7 +1731,7 @@
         <v>6.9119999999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1555,7 +1747,7 @@
         <v>7.7759999999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>11</v>
       </c>
@@ -1571,7 +1763,7 @@
         <v>8.64</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>12</v>
       </c>
@@ -1580,7 +1772,7 @@
         <v>13.888888888888889</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>
       </c>
@@ -1589,7 +1781,7 @@
         <v>15.046296296296296</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
@@ -1598,7 +1790,7 @@
         <v>16.203703703703702</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
@@ -1607,7 +1799,7 @@
         <v>17.361111111111111</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>16</v>
       </c>
@@ -1616,7 +1808,7 @@
         <v>18.518518518518519</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>17</v>
       </c>
@@ -1625,7 +1817,7 @@
         <v>19.675925925925927</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>18</v>
       </c>
@@ -1634,7 +1826,7 @@
         <v>20.833333333333332</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>19</v>
       </c>
@@ -1643,7 +1835,7 @@
         <v>21.99074074074074</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>20</v>
       </c>
@@ -1663,7 +1855,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
